--- a/引脚分配表.xlsx
+++ b/引脚分配表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Resource\Github\Dragon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D38E090-4290-44D5-83C6-14ADF675B330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A735A4FA-988A-4ED5-A3F7-66EF3315A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{303472CC-D412-4958-B38E-700A5EC0F830}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -578,6 +578,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -585,9 +588,6 @@
       </c>
       <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
